--- a/FactorLib/resource/level_2_industry_dict.xlsx
+++ b/FactorLib/resource/level_2_industry_dict.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="sw_level_2" sheetId="1" r:id="rId1"/>
     <sheet name="cs_level_2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="细分银行券商保险(申万)" sheetId="3" r:id="rId3"/>
+    <sheet name="细分银行券商保险(中信)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="475">
   <si>
     <t>林业Ⅱ</t>
   </si>
@@ -1101,13 +1102,418 @@
   </si>
   <si>
     <t>801881</t>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>券商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801780</t>
+  </si>
+  <si>
+    <t>农林牧渔</t>
+  </si>
+  <si>
+    <t>综合</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>多元金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农林牧渔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采掘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织服装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻工制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公用事业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业贸易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国防军工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801010</t>
+  </si>
+  <si>
+    <t>801020</t>
+  </si>
+  <si>
+    <t>801030</t>
+  </si>
+  <si>
+    <t>801040</t>
+  </si>
+  <si>
+    <t>801050</t>
+  </si>
+  <si>
+    <t>801080</t>
+  </si>
+  <si>
+    <t>801110</t>
+  </si>
+  <si>
+    <t>801120</t>
+  </si>
+  <si>
+    <t>801130</t>
+  </si>
+  <si>
+    <t>801140</t>
+  </si>
+  <si>
+    <t>801150</t>
+  </si>
+  <si>
+    <t>801160</t>
+  </si>
+  <si>
+    <t>801170</t>
+  </si>
+  <si>
+    <t>801180</t>
+  </si>
+  <si>
+    <t>801200</t>
+  </si>
+  <si>
+    <t>801210</t>
+  </si>
+  <si>
+    <t>801230</t>
+  </si>
+  <si>
+    <t>801710</t>
+  </si>
+  <si>
+    <t>801720</t>
+  </si>
+  <si>
+    <t>801730</t>
+  </si>
+  <si>
+    <t>801740</t>
+  </si>
+  <si>
+    <t>801750</t>
+  </si>
+  <si>
+    <t>801760</t>
+  </si>
+  <si>
+    <t>801770</t>
+  </si>
+  <si>
+    <t>801880</t>
+  </si>
+  <si>
+    <t>801890</t>
+  </si>
+  <si>
+    <t>证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005002</t>
+  </si>
+  <si>
+    <t>CI005003</t>
+  </si>
+  <si>
+    <t>CI005004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力及公用事业</t>
+  </si>
+  <si>
+    <t>CI005006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005007</t>
+  </si>
+  <si>
+    <t>CI005008</t>
+  </si>
+  <si>
+    <t>建材</t>
+  </si>
+  <si>
+    <t>CI005010</t>
+  </si>
+  <si>
+    <t>CI005011</t>
+  </si>
+  <si>
+    <t>CI005012</t>
+  </si>
+  <si>
+    <t>CI005014</t>
+  </si>
+  <si>
+    <t>CI005015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005016</t>
+  </si>
+  <si>
+    <t>家电</t>
+  </si>
+  <si>
+    <t>CI005018</t>
+  </si>
+  <si>
+    <t>CI005019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005020</t>
+  </si>
+  <si>
+    <t>CI005023</t>
+  </si>
+  <si>
+    <t>CI005024</t>
+  </si>
+  <si>
+    <t>CI005025</t>
+  </si>
+  <si>
+    <t>电子元器件</t>
+  </si>
+  <si>
+    <t>CI005027</t>
+  </si>
+  <si>
+    <t>CI005028</t>
+  </si>
+  <si>
+    <t>CI005029</t>
+  </si>
+  <si>
+    <t>CI005001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油石化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础化工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商贸零售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐饮旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI005167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,7 +1552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,17 +1562,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1208,7 +1625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1240,9 +1657,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1274,6 +1709,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1449,20 +1902,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>255</v>
       </c>
@@ -1470,7 +1924,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>257</v>
       </c>
@@ -1478,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>258</v>
       </c>
@@ -1486,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>259</v>
       </c>
@@ -1494,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>260</v>
       </c>
@@ -1502,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>261</v>
       </c>
@@ -1510,7 +1964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>262</v>
       </c>
@@ -1518,7 +1972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>263</v>
       </c>
@@ -1526,7 +1980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>264</v>
       </c>
@@ -1534,7 +1988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>265</v>
       </c>
@@ -1542,7 +1996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>266</v>
       </c>
@@ -1550,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>267</v>
       </c>
@@ -1558,7 +2012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>268</v>
       </c>
@@ -1566,7 +2020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>269</v>
       </c>
@@ -1574,7 +2028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>270</v>
       </c>
@@ -1582,7 +2036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>271</v>
       </c>
@@ -1590,7 +2044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>272</v>
       </c>
@@ -1598,7 +2052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>273</v>
       </c>
@@ -1606,7 +2060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>274</v>
       </c>
@@ -1614,7 +2068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>275</v>
       </c>
@@ -1622,7 +2076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>276</v>
       </c>
@@ -1630,7 +2084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>277</v>
       </c>
@@ -1638,7 +2092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>278</v>
       </c>
@@ -1646,7 +2100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>279</v>
       </c>
@@ -1654,7 +2108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>280</v>
       </c>
@@ -1662,7 +2116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>281</v>
       </c>
@@ -1670,7 +2124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>282</v>
       </c>
@@ -1678,7 +2132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>283</v>
       </c>
@@ -1686,7 +2140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>284</v>
       </c>
@@ -1694,7 +2148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>285</v>
       </c>
@@ -1702,7 +2156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>286</v>
       </c>
@@ -1710,7 +2164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>287</v>
       </c>
@@ -1718,7 +2172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>288</v>
       </c>
@@ -1726,7 +2180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>289</v>
       </c>
@@ -1734,7 +2188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>290</v>
       </c>
@@ -1742,7 +2196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>291</v>
       </c>
@@ -1750,7 +2204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>292</v>
       </c>
@@ -1758,7 +2212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>293</v>
       </c>
@@ -1766,7 +2220,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>294</v>
       </c>
@@ -1774,7 +2228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>295</v>
       </c>
@@ -1782,7 +2236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>296</v>
       </c>
@@ -1790,7 +2244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>297</v>
       </c>
@@ -1798,7 +2252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>298</v>
       </c>
@@ -1806,7 +2260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>299</v>
       </c>
@@ -1814,7 +2268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>300</v>
       </c>
@@ -1822,7 +2276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>301</v>
       </c>
@@ -1830,7 +2284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>302</v>
       </c>
@@ -1838,7 +2292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>303</v>
       </c>
@@ -1846,7 +2300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>304</v>
       </c>
@@ -1854,7 +2308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>305</v>
       </c>
@@ -1862,7 +2316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>306</v>
       </c>
@@ -1870,7 +2324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>307</v>
       </c>
@@ -1878,7 +2332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>308</v>
       </c>
@@ -1886,7 +2340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>309</v>
       </c>
@@ -1894,7 +2348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>310</v>
       </c>
@@ -1902,7 +2356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>311</v>
       </c>
@@ -1910,7 +2364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>312</v>
       </c>
@@ -1918,7 +2372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>313</v>
       </c>
@@ -1926,7 +2380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>314</v>
       </c>
@@ -1934,7 +2388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>315</v>
       </c>
@@ -1942,7 +2396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>316</v>
       </c>
@@ -1950,7 +2404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>317</v>
       </c>
@@ -1958,7 +2412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>318</v>
       </c>
@@ -1966,7 +2420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>319</v>
       </c>
@@ -1974,7 +2428,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>320</v>
       </c>
@@ -1982,7 +2436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>321</v>
       </c>
@@ -1990,7 +2444,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>322</v>
       </c>
@@ -1998,7 +2452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>323</v>
       </c>
@@ -2006,7 +2460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>324</v>
       </c>
@@ -2014,7 +2468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>325</v>
       </c>
@@ -2022,7 +2476,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>326</v>
       </c>
@@ -2030,7 +2484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>327</v>
       </c>
@@ -2038,7 +2492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>328</v>
       </c>
@@ -2046,7 +2500,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>329</v>
       </c>
@@ -2054,7 +2508,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>330</v>
       </c>
@@ -2062,7 +2516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>331</v>
       </c>
@@ -2070,7 +2524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>332</v>
       </c>
@@ -2078,7 +2532,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>333</v>
       </c>
@@ -2086,7 +2540,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>334</v>
       </c>
@@ -2094,7 +2548,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>335</v>
       </c>
@@ -2102,7 +2556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>336</v>
       </c>
@@ -2110,7 +2564,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>337</v>
       </c>
@@ -2118,7 +2572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>338</v>
       </c>
@@ -2126,7 +2580,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>339</v>
       </c>
@@ -2134,7 +2588,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>340</v>
       </c>
@@ -2142,7 +2596,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>341</v>
       </c>
@@ -2150,7 +2604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>342</v>
       </c>
@@ -2158,7 +2612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>343</v>
       </c>
@@ -2166,7 +2620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>344</v>
       </c>
@@ -2174,7 +2628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>345</v>
       </c>
@@ -2182,7 +2636,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>346</v>
       </c>
@@ -2190,7 +2644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>347</v>
       </c>
@@ -2198,7 +2652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>348</v>
       </c>
@@ -2206,7 +2660,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>349</v>
       </c>
@@ -2214,7 +2668,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>350</v>
       </c>
@@ -2222,7 +2676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>351</v>
       </c>
@@ -2230,7 +2684,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>352</v>
       </c>
@@ -2238,7 +2692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>353</v>
       </c>
@@ -2246,7 +2700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>354</v>
       </c>
@@ -2254,7 +2708,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>355</v>
       </c>
@@ -2262,7 +2716,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>356</v>
       </c>
@@ -2270,7 +2724,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>357</v>
       </c>
@@ -2278,7 +2732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>358</v>
       </c>
@@ -2286,7 +2740,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>359</v>
       </c>
@@ -2294,7 +2748,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>360</v>
       </c>
@@ -2310,20 +2764,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>255</v>
       </c>
@@ -2331,7 +2786,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -2339,7 +2794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>173</v>
       </c>
@@ -2347,7 +2802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>174</v>
       </c>
@@ -2355,7 +2810,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -2363,7 +2818,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -2371,7 +2826,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>177</v>
       </c>
@@ -2379,7 +2834,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>178</v>
       </c>
@@ -2387,7 +2842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -2395,7 +2850,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -2403,7 +2858,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>181</v>
       </c>
@@ -2411,7 +2866,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>182</v>
       </c>
@@ -2419,7 +2874,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>183</v>
       </c>
@@ -2427,7 +2882,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>184</v>
       </c>
@@ -2435,7 +2890,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>185</v>
       </c>
@@ -2443,7 +2898,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>186</v>
       </c>
@@ -2451,7 +2906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>187</v>
       </c>
@@ -2459,7 +2914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>188</v>
       </c>
@@ -2467,7 +2922,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>189</v>
       </c>
@@ -2475,7 +2930,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>190</v>
       </c>
@@ -2483,7 +2938,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>191</v>
       </c>
@@ -2491,7 +2946,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>192</v>
       </c>
@@ -2499,7 +2954,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>193</v>
       </c>
@@ -2507,7 +2962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>194</v>
       </c>
@@ -2515,7 +2970,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>195</v>
       </c>
@@ -2523,7 +2978,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>196</v>
       </c>
@@ -2531,7 +2986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>197</v>
       </c>
@@ -2539,7 +2994,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
@@ -2547,7 +3002,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>199</v>
       </c>
@@ -2555,7 +3010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>200</v>
       </c>
@@ -2563,7 +3018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>201</v>
       </c>
@@ -2571,7 +3026,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>202</v>
       </c>
@@ -2579,7 +3034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>203</v>
       </c>
@@ -2587,7 +3042,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>204</v>
       </c>
@@ -2595,7 +3050,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>205</v>
       </c>
@@ -2603,7 +3058,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>206</v>
       </c>
@@ -2611,7 +3066,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>207</v>
       </c>
@@ -2619,7 +3074,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>208</v>
       </c>
@@ -2627,7 +3082,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>209</v>
       </c>
@@ -2635,7 +3090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>210</v>
       </c>
@@ -2643,7 +3098,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>211</v>
       </c>
@@ -2651,7 +3106,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>212</v>
       </c>
@@ -2659,7 +3114,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>213</v>
       </c>
@@ -2667,7 +3122,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>214</v>
       </c>
@@ -2675,7 +3130,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>215</v>
       </c>
@@ -2683,7 +3138,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>216</v>
       </c>
@@ -2691,7 +3146,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>217</v>
       </c>
@@ -2699,7 +3154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>218</v>
       </c>
@@ -2707,7 +3162,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>219</v>
       </c>
@@ -2715,7 +3170,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>220</v>
       </c>
@@ -2723,7 +3178,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>221</v>
       </c>
@@ -2731,7 +3186,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>222</v>
       </c>
@@ -2739,7 +3194,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>223</v>
       </c>
@@ -2747,7 +3202,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>224</v>
       </c>
@@ -2755,7 +3210,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>225</v>
       </c>
@@ -2763,7 +3218,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>226</v>
       </c>
@@ -2771,7 +3226,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>227</v>
       </c>
@@ -2779,7 +3234,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>228</v>
       </c>
@@ -2787,7 +3242,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>229</v>
       </c>
@@ -2795,7 +3250,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>230</v>
       </c>
@@ -2803,7 +3258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>231</v>
       </c>
@@ -2811,7 +3266,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>232</v>
       </c>
@@ -2819,7 +3274,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>233</v>
       </c>
@@ -2827,7 +3282,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>234</v>
       </c>
@@ -2835,7 +3290,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>235</v>
       </c>
@@ -2843,7 +3298,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>236</v>
       </c>
@@ -2851,7 +3306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>237</v>
       </c>
@@ -2859,7 +3314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>238</v>
       </c>
@@ -2867,7 +3322,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>239</v>
       </c>
@@ -2875,7 +3330,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>240</v>
       </c>
@@ -2883,7 +3338,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>241</v>
       </c>
@@ -2891,7 +3346,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>242</v>
       </c>
@@ -2899,7 +3354,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>243</v>
       </c>
@@ -2907,7 +3362,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>244</v>
       </c>
@@ -2915,7 +3370,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>245</v>
       </c>
@@ -2923,7 +3378,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>246</v>
       </c>
@@ -2931,7 +3386,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>247</v>
       </c>
@@ -2939,7 +3394,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>248</v>
       </c>
@@ -2947,7 +3402,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>249</v>
       </c>
@@ -2955,7 +3410,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>250</v>
       </c>
@@ -2963,7 +3418,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>251</v>
       </c>
@@ -2971,7 +3426,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -2979,7 +3434,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>253</v>
       </c>
@@ -2987,7 +3442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -2995,87 +3450,87 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
@@ -3087,15 +3542,547 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FactorLib/resource/level_2_industry_dict.xlsx
+++ b/FactorLib/resource/level_2_industry_dict.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sw_level_2" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="487">
   <si>
     <t>林业Ⅱ</t>
   </si>
@@ -1124,9 +1124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>801780</t>
-  </si>
-  <si>
     <t>农林牧渔</t>
   </si>
   <si>
@@ -1506,6 +1503,58 @@
   </si>
   <si>
     <t>CI005167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑建材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交运设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1552,7 +1601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,6 +1613,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1906,8 +1958,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3544,10 +3596,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3565,7 +3617,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>363</v>
@@ -3592,215 +3644,263 @@
         <v>325</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3812,6 +3912,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3834,23 +3935,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>154</v>
@@ -3858,167 +3959,167 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>363</v>
@@ -4026,58 +4127,58 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/FactorLib/resource/level_2_industry_dict.xlsx
+++ b/FactorLib/resource/level_2_industry_dict.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="sw_level_2" sheetId="1" r:id="rId1"/>
     <sheet name="cs_level_2" sheetId="2" r:id="rId2"/>
-    <sheet name="细分银行券商保险(申万)" sheetId="3" r:id="rId3"/>
-    <sheet name="细分银行券商保险(中信)" sheetId="4" r:id="rId4"/>
+    <sheet name="divrsfd_finan_sw" sheetId="3" r:id="rId3"/>
+    <sheet name="divrsfd_finan_cs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -3599,7 +3599,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/FactorLib/resource/level_2_industry_dict.xlsx
+++ b/FactorLib/resource/level_2_industry_dict.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B48706E-CD81-42B6-A2A2-332D4D56D750}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CBC1E2-B9F4-40C9-BCC7-1C86E3C1187F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sw_level_2" sheetId="1" r:id="rId1"/>
@@ -1707,9 +1707,6 @@
     <t>机械</t>
   </si>
   <si>
-    <t>电力设备</t>
-  </si>
-  <si>
     <t>CI005013</t>
   </si>
   <si>
@@ -1719,9 +1716,6 @@
     <t>CI005015</t>
   </si>
   <si>
-    <t>餐饮旅游</t>
-  </si>
-  <si>
     <t>CI005017</t>
   </si>
   <si>
@@ -1942,6 +1936,14 @@
   </si>
   <si>
     <t>其他采掘Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力设备及新能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2372,7 +2374,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2467,7 +2469,7 @@
         <v>265</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -3529,11 +3531,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755319A0-1E58-473C-80F5-D820273C9363}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
@@ -3628,7 +3634,7 @@
         <v>432</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>535</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -3641,7 +3647,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>512</v>
@@ -3652,15 +3658,15 @@
         <v>434</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>539</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -3673,7 +3679,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>494</v>
@@ -3684,12 +3690,12 @@
         <v>438</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>493</v>
@@ -3705,7 +3711,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>509</v>
@@ -3713,10 +3719,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -3740,12 +3746,12 @@
         <v>443</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>444</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>507</v>
@@ -4579,79 +4585,79 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>497</v>
@@ -4659,7 +4665,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>499</v>
@@ -4694,127 +4700,127 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B13" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B15" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B16" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B17" t="s">
         <v>509</v>
@@ -4822,15 +4828,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -4838,50 +4844,50 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B20" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B24" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
